--- a/Documentation/whisker_system/whisker_module_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6240" windowWidth="25230" windowHeight="6300"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>Column10</t>
   </si>
@@ -156,12 +156,6 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
-    <t>6 pin polar</t>
-  </si>
-  <si>
-    <t>4 pin polar</t>
-  </si>
-  <si>
     <t>2 pin polar</t>
   </si>
   <si>
@@ -276,16 +270,49 @@
     <t>http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094</t>
   </si>
   <si>
-    <t>WM4204-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232061</t>
-  </si>
-  <si>
-    <t>WM4202-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232041</t>
+    <t>Hex Inverter with Schmitt Trigger Inputs</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>SN74LS14NSR</t>
+  </si>
+  <si>
+    <t>296-3652-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690</t>
+  </si>
+  <si>
+    <t>Multiplexer</t>
+  </si>
+  <si>
+    <t>1:8-1</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>14 pin</t>
+  </si>
+  <si>
+    <t>PRT-08113</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8113</t>
+  </si>
+  <si>
+    <t>CD74HCT151E</t>
+  </si>
+  <si>
+    <t>296-2139-5-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=CD74HCT151E</t>
   </si>
 </sst>
 </file>
@@ -371,7 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -380,6 +407,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -718,8 +746,8 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,11 +881,11 @@
         <v>0.2</v>
       </c>
       <c r="J3" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.60000000000000009</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -898,104 +926,104 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.35</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4">
-        <v>22232041</v>
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.37</v>
+        <v>45</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.43</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4">
-        <v>22232021</v>
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I7" s="5">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.4</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1003,33 +1031,33 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="4">
-        <v>22232061</v>
+        <v>22232051</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.44</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.45</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1037,250 +1065,267 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="4">
-        <v>22232051</v>
+        <v>22232021</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.45</v>
+        <v>48</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.16</v>
       </c>
       <c r="J9" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.35</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5">
-        <v>3.31</v>
+        <v>0.08</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.31</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" s="5">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="K12" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.08</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I13" s="5">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="J13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I14" s="5">
-        <v>0.35</v>
+        <v>1.95</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.35</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,11 +1382,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>10.620000000000001</v>
+        <v>44.080000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1517,51 +1562,56 @@
     <hyperlink ref="G3" r:id="rId8" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
     <hyperlink ref="E3" r:id="rId9" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
     <hyperlink ref="D3" r:id="rId10" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="D9" r:id="rId11" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E9" r:id="rId12" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G9" r:id="rId13" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H9" r:id="rId14"/>
-    <hyperlink ref="H10" r:id="rId15"/>
-    <hyperlink ref="G10" r:id="rId16" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E10" r:id="rId17" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D10" r:id="rId18" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="D8" r:id="rId19" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D6" r:id="rId20" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E7" r:id="rId21" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D7" r:id="rId22" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId23" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="H5" r:id="rId24"/>
-    <hyperlink ref="G5" r:id="rId25" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E5" r:id="rId26" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D5" r:id="rId27" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H12" r:id="rId28"/>
-    <hyperlink ref="G12" r:id="rId29" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E12" r:id="rId30" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D12" r:id="rId31" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H13" r:id="rId32"/>
-    <hyperlink ref="G13" r:id="rId33" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E13" r:id="rId34" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D13" r:id="rId35" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G14" r:id="rId36"/>
-    <hyperlink ref="H14" r:id="rId37"/>
-    <hyperlink ref="H15" r:id="rId38"/>
-    <hyperlink ref="G15" r:id="rId39" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E15" r:id="rId40" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D15" r:id="rId41" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="H11" r:id="rId42"/>
-    <hyperlink ref="G11" r:id="rId43" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="E11" r:id="rId44" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="D11" r:id="rId45" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="G8" r:id="rId46"/>
-    <hyperlink ref="E8" r:id="rId47" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232061"/>
-    <hyperlink ref="G6" r:id="rId48"/>
-    <hyperlink ref="E6" r:id="rId49" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232041"/>
-    <hyperlink ref="H7" r:id="rId50"/>
+    <hyperlink ref="E5" r:id="rId11" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G5" r:id="rId12" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D5" r:id="rId13" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="H6" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E6" r:id="rId16" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D6" r:id="rId17" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="D8" r:id="rId18" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E8" r:id="rId19" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G8" r:id="rId20" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H8" r:id="rId21"/>
+    <hyperlink ref="E9" r:id="rId22" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D9" r:id="rId23" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G9" r:id="rId24" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="H10" r:id="rId25"/>
+    <hyperlink ref="G10" r:id="rId26" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E10" r:id="rId27" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D10" r:id="rId28" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H12" r:id="rId29"/>
+    <hyperlink ref="H11" r:id="rId30"/>
+    <hyperlink ref="G12" r:id="rId31" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E12" r:id="rId32" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D12" r:id="rId33" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G11" r:id="rId34" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E11" r:id="rId35" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D11" r:id="rId36" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G13" r:id="rId37"/>
+    <hyperlink ref="H13" r:id="rId38"/>
+    <hyperlink ref="G14" r:id="rId39"/>
+    <hyperlink ref="H15" r:id="rId40"/>
+    <hyperlink ref="G15" r:id="rId41" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E15" r:id="rId42" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D15" r:id="rId43" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="H16" r:id="rId44"/>
+    <hyperlink ref="G16" r:id="rId45" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="E16" r:id="rId46" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="D16" r:id="rId47" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
+    <hyperlink ref="H2" r:id="rId48"/>
+    <hyperlink ref="H4" r:id="rId49"/>
+    <hyperlink ref="H5" r:id="rId50"/>
+    <hyperlink ref="E7" r:id="rId51" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="D7" r:id="rId52" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId53" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="H9" r:id="rId54"/>
+    <hyperlink ref="H14" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/whisker_system/whisker_module_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_BOM.xlsx
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,11 +881,11 @@
         <v>0.2</v>
       </c>
       <c r="J3" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1382,11 +1382,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>44.080000000000005</v>
+        <v>44.280000000000008</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/whisker_system/whisker_module_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_BOM.xlsx
@@ -297,15 +297,6 @@
     <t>Socket</t>
   </si>
   <si>
-    <t>14 pin</t>
-  </si>
-  <si>
-    <t>PRT-08113</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8113</t>
-  </si>
-  <si>
     <t>CD74HCT151E</t>
   </si>
   <si>
@@ -313,6 +304,15 @@
   </si>
   <si>
     <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=CD74HCT151E</t>
+  </si>
+  <si>
+    <t>28 pin</t>
+  </si>
+  <si>
+    <t>PRT-09175</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9175</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,16 +1004,16 @@
         <v>86</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I7" s="5">
         <v>0.63</v>
@@ -1235,7 +1235,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1244,20 +1244,20 @@
         <v>69</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I14" s="5">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1287,11 +1287,11 @@
         <v>0.16</v>
       </c>
       <c r="J15" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.04</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>44.280000000000008</v>
+        <v>43.490000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1590,28 +1590,27 @@
     <hyperlink ref="D11" r:id="rId36" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
     <hyperlink ref="G13" r:id="rId37"/>
     <hyperlink ref="H13" r:id="rId38"/>
-    <hyperlink ref="G14" r:id="rId39"/>
-    <hyperlink ref="H15" r:id="rId40"/>
-    <hyperlink ref="G15" r:id="rId41" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E15" r:id="rId42" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D15" r:id="rId43" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="H16" r:id="rId44"/>
-    <hyperlink ref="G16" r:id="rId45" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="E16" r:id="rId46" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="D16" r:id="rId47" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="H2" r:id="rId48"/>
-    <hyperlink ref="H4" r:id="rId49"/>
-    <hyperlink ref="H5" r:id="rId50"/>
-    <hyperlink ref="E7" r:id="rId51" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
-    <hyperlink ref="D7" r:id="rId52" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId53" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
-    <hyperlink ref="H9" r:id="rId54"/>
-    <hyperlink ref="H14" r:id="rId55"/>
+    <hyperlink ref="H15" r:id="rId39"/>
+    <hyperlink ref="G15" r:id="rId40" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E15" r:id="rId41" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D15" r:id="rId42" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="H16" r:id="rId43"/>
+    <hyperlink ref="G16" r:id="rId44" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="E16" r:id="rId45" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="D16" r:id="rId46" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
+    <hyperlink ref="H2" r:id="rId47"/>
+    <hyperlink ref="H4" r:id="rId48"/>
+    <hyperlink ref="H5" r:id="rId49"/>
+    <hyperlink ref="E7" r:id="rId50" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="D7" r:id="rId51" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId52" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="H9" r:id="rId53"/>
+    <hyperlink ref="G14" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/whisker_system/whisker_module_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Column10</t>
   </si>
@@ -303,9 +303,6 @@
     <t>296-2139-5-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=CD74HCT151E</t>
-  </si>
-  <si>
     <t>28 pin</t>
   </si>
   <si>
@@ -313,6 +310,27 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/9175</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>4x5</t>
+  </si>
+  <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>8000-45-LF</t>
+  </si>
+  <si>
+    <t>Frys</t>
+  </si>
+  <si>
+    <t>http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw</t>
   </si>
 </sst>
 </file>
@@ -323,7 +341,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +372,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +390,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,13 +422,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -408,8 +439,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -417,7 +454,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1050,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="5">
         <v>0.63</v>
@@ -1235,7 +1272,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1244,10 +1281,10 @@
         <v>69</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="I14" s="5">
         <v>2.95</v>
@@ -1328,17 +1365,38 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4986181</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="11">
+        <v>12.69</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
       </c>
       <c r="K17" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1382,11 +1440,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>43.490000000000009</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1606,11 +1664,12 @@
     <hyperlink ref="G7" r:id="rId52" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
     <hyperlink ref="H9" r:id="rId53"/>
     <hyperlink ref="G14" r:id="rId54"/>
+    <hyperlink ref="G17" r:id="rId55" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
